--- a/data/general_results_2019.xlsx
+++ b/data/general_results_2019.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Afek Tounes</t>
   </si>
   <si>
-    <t xml:space="preserve">3ich Tounsi</t>
+    <t xml:space="preserve">Aaich Tounsi</t>
   </si>
   <si>
     <t xml:space="preserve">Al Badil</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Coalisation Kolna lil Watan</t>
   </si>
   <si>
-    <t xml:space="preserve">Amal wa 3amal</t>
+    <t xml:space="preserve">Amal wa Aamal</t>
   </si>
   <si>
     <t xml:space="preserve">Coalition Karama</t>
@@ -61,10 +61,10 @@
     <t xml:space="preserve">Parti Rahma</t>
   </si>
   <si>
-    <t xml:space="preserve">Tayar Ma7abba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machrou3 Tounes</t>
+    <t xml:space="preserve">Tayar Mahabba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machroua Tounes</t>
   </si>
   <si>
     <t xml:space="preserve">harakt el chaab</t>
@@ -304,14 +304,14 @@
   </sheetPr>
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
